--- a/biology/Médecine/Grégoire_Lachèse/Grégoire_Lachèse.xlsx
+++ b/biology/Médecine/Grégoire_Lachèse/Grégoire_Lachèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Lach%C3%A8se</t>
+          <t>Grégoire_Lachèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grégoire Lachèse, né à Candé en 1773 et mort à Angers en 1863, est un médecin angevin. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Lach%C3%A8se</t>
+          <t>Grégoire_Lachèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien élève de l'école de médecine d'Angers, Grégoire Lachèse s'engage comme volontaire dans l'armée révolutionnaire, où il est affecté comme chirurgien. Il participe à la guerre de Vendée, puis est envoyé en Irlande et en Belgique. Il est ensuite intégré à l'état-major du général Hoche. En 1800, il devient est nommé chirurgien principal de la garde consulaire au camp de Boulogne[1]. 
-La même année, Grégoire Lachèse réalise la première expérimentation connue de vaccination contre la maladie du claveau[2] sur les moutons mérinos de son beau-frère Louis Silvy[3] dans son domaine de Champgueffier.
-Reçu docteur en médecine à Paris, il s'installe à Angers en 1805. Il y travaille comme médecin du lycée d'Angers, puis comme professeur à l'école de médecine à partir de 1807, médecin à l'école des Arts et Métiers (1815), chirurgien-major de la Garde nationale (1830), puis enfin directeur de l'école de médecine. Il est membre correspondant de l'académie de médecine en 1825. En 1837, il reçoit la Légion d'honneur[1].
-Une rue d'Angers porte son nom[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien élève de l'école de médecine d'Angers, Grégoire Lachèse s'engage comme volontaire dans l'armée révolutionnaire, où il est affecté comme chirurgien. Il participe à la guerre de Vendée, puis est envoyé en Irlande et en Belgique. Il est ensuite intégré à l'état-major du général Hoche. En 1800, il devient est nommé chirurgien principal de la garde consulaire au camp de Boulogne. 
+La même année, Grégoire Lachèse réalise la première expérimentation connue de vaccination contre la maladie du claveau sur les moutons mérinos de son beau-frère Louis Silvy dans son domaine de Champgueffier.
+Reçu docteur en médecine à Paris, il s'installe à Angers en 1805. Il y travaille comme médecin du lycée d'Angers, puis comme professeur à l'école de médecine à partir de 1807, médecin à l'école des Arts et Métiers (1815), chirurgien-major de la Garde nationale (1830), puis enfin directeur de l'école de médecine. Il est membre correspondant de l'académie de médecine en 1825. En 1837, il reçoit la Légion d'honneur.
+Une rue d'Angers porte son nom.
 </t>
         </is>
       </c>
